--- a/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-206_データフロー(サンプル＆ガイド).xlsx
+++ b/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-206_データフロー(サンプル＆ガイド).xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ガイド!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -470,16 +470,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -515,6 +505,13 @@
     </rPh>
     <rPh sb="31" eb="33">
       <t>セイゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3767,9 +3764,7 @@
       <c r="G31" s="15"/>
       <c r="H31" s="11"/>
       <c r="J31" s="16"/>
-      <c r="R31" s="17" t="s">
-        <v>31</v>
-      </c>
+      <c r="R31" s="17"/>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="11"/>
@@ -3809,20 +3804,24 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O39" s="21"/>
       <c r="P39" s="21"/>
       <c r="Q39" s="22"/>
       <c r="R39" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S39" s="21"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4297,7 +4296,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -4480,7 +4479,7 @@
       <c r="Z38" s="34"/>
       <c r="AA38" s="34"/>
       <c r="AB38" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC38" s="36"/>
       <c r="AD38" s="36"/>

--- a/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-206_データフロー(サンプル＆ガイド).xlsx
+++ b/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-206_データフロー(サンプル＆ガイド).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA14928-EFF1-4066-ACB8-35B30477C1AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="10575" windowHeight="5685"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="17850" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>記述内容</t>
     <rPh sb="0" eb="2">
@@ -470,17 +471,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
-  </si>
-  <si>
     <t>※プロセスＩＤとプロセス名は、業務階層定義の業務ＩＤと業務名と整合させる。</t>
     <rPh sb="12" eb="13">
       <t>メイ</t>
@@ -505,13 +495,6 @@
     </rPh>
     <rPh sb="31" eb="33">
       <t>セイゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -519,7 +502,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -917,6 +900,21 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -955,21 +953,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1050,6 +1033,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1071,7 +1057,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1169,52 +1161,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>94137</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6715125"/>
-          <a:ext cx="838200" cy="265587"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1230,7 +1176,13 @@
     <xdr:ext cx="902811" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1307,7 +1259,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1394,7 +1352,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1476,7 +1440,13 @@
     <xdr:ext cx="1313180" cy="625812"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1579,7 +1549,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1638,7 +1614,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1725,7 +1707,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="カギ線コネクタ 9"/>
+        <xdr:cNvPr id="10" name="カギ線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="3"/>
           <a:endCxn id="9" idx="1"/>
@@ -1777,7 +1765,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="カギ線コネクタ 10"/>
+        <xdr:cNvPr id="11" name="カギ線コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="3"/>
           <a:endCxn id="13" idx="1"/>
@@ -1829,7 +1823,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1911,7 +1911,13 @@
     <xdr:ext cx="1210588" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1970,7 +1976,13 @@
     <xdr:ext cx="1107996" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2034,7 +2046,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="円/楕円 17"/>
+        <xdr:cNvPr id="18" name="円/楕円 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2107,7 +2125,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="19" name="グループ化 18"/>
+        <xdr:cNvPr id="19" name="グループ化 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2120,7 +2144,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="20" name="直線コネクタ 19"/>
+          <xdr:cNvPr id="20" name="直線コネクタ 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -2149,7 +2179,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="21" name="直線コネクタ 20"/>
+          <xdr:cNvPr id="21" name="直線コネクタ 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -2178,7 +2214,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+          <xdr:cNvPr id="22" name="テキスト ボックス 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2239,7 +2281,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2298,7 +2346,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="24" name="グループ化 23"/>
+        <xdr:cNvPr id="24" name="グループ化 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2311,7 +2365,13 @@
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="25" name="直線矢印コネクタ 24"/>
+          <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -2343,7 +2403,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
+          <xdr:cNvPr id="26" name="テキスト ボックス 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2404,7 +2470,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="図 26"/>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2448,7 +2520,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="図 27"/>
+        <xdr:cNvPr id="28" name="図 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2492,7 +2570,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2545,7 +2629,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="ストライプ矢印 29"/>
+        <xdr:cNvPr id="30" name="ストライプ矢印 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2592,7 +2682,13 @@
     <xdr:ext cx="1668855" cy="392415"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="テキスト ボックス 30"/>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2660,7 +2756,13 @@
     <xdr:ext cx="2466829" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2729,7 +2831,13 @@
     <xdr:ext cx="2486258" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="テキスト ボックス 32"/>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2789,7 +2897,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="正方形/長方形 33"/>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2880,7 +2994,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="カギ線コネクタ 36"/>
+        <xdr:cNvPr id="37" name="カギ線コネクタ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="34" idx="3"/>
           <a:endCxn id="4" idx="1"/>
@@ -2925,7 +3045,13 @@
     <xdr:ext cx="697627" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="テキスト ボックス 48"/>
+        <xdr:cNvPr id="49" name="テキスト ボックス 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2989,7 +3115,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線矢印コネクタ 35"/>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="2"/>
           <a:endCxn id="4" idx="0"/>
@@ -3039,7 +3171,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="カギ線コネクタ 40"/>
+        <xdr:cNvPr id="41" name="カギ線コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="3"/>
           <a:endCxn id="4" idx="1"/>
@@ -3089,7 +3227,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3180,7 +3324,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="カギ線コネクタ 37"/>
+        <xdr:cNvPr id="38" name="カギ線コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="35" idx="3"/>
           <a:endCxn id="4" idx="1"/>
@@ -3225,7 +3375,13 @@
     <xdr:ext cx="1313180" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="テキスト ボックス 39"/>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3307,7 +3463,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3351,7 +3513,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3384,7 +3552,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3426,7 +3594,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3459,9 +3627,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3494,6 +3679,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3669,7 +3871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3778,58 +3980,47 @@
       <c r="R32" s="20"/>
       <c r="S32" s="21"/>
     </row>
-    <row r="33" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="18"/>
       <c r="P36" s="18"/>
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
     </row>
-    <row r="37" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="22"/>
       <c r="P37" s="21"/>
       <c r="Q37" s="22"/>
       <c r="R37" s="21"/>
       <c r="S37" s="23"/>
     </row>
-    <row r="38" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="22"/>
       <c r="P38" s="21"/>
       <c r="Q38" s="22"/>
       <c r="R38" s="21"/>
       <c r="S38" s="22"/>
     </row>
-    <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>32</v>
-      </c>
+    <row r="39" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="24"/>
       <c r="O39" s="21"/>
       <c r="P39" s="21"/>
       <c r="Q39" s="22"/>
-      <c r="R39" s="22" t="s">
-        <v>33</v>
-      </c>
+      <c r="R39" s="22"/>
       <c r="S39" s="21"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4292,17 +4483,14 @@
     <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="E39" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK56"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -4404,212 +4592,212 @@
       <c r="B37" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="28" t="s">
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="28"/>
-      <c r="S37" s="28"/>
-      <c r="T37" s="28"/>
-      <c r="U37" s="28"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="28"/>
-      <c r="X37" s="29" t="s">
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="33"/>
+      <c r="V37" s="33"/>
+      <c r="W37" s="33"/>
+      <c r="X37" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="Y37" s="28"/>
-      <c r="Z37" s="28"/>
-      <c r="AA37" s="28"/>
-      <c r="AB37" s="28" t="s">
+      <c r="Y37" s="33"/>
+      <c r="Z37" s="33"/>
+      <c r="AA37" s="33"/>
+      <c r="AB37" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AC37" s="28"/>
-      <c r="AD37" s="28"/>
-      <c r="AE37" s="28"/>
-      <c r="AF37" s="28"/>
-      <c r="AG37" s="28"/>
-      <c r="AH37" s="28"/>
+      <c r="AC37" s="33"/>
+      <c r="AD37" s="33"/>
+      <c r="AE37" s="33"/>
+      <c r="AF37" s="33"/>
+      <c r="AG37" s="33"/>
+      <c r="AH37" s="33"/>
     </row>
     <row r="38" spans="1:34" s="2" customFormat="1" ht="60" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B38" s="4">
         <v>1</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="33" t="s">
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="33"/>
-      <c r="T38" s="33"/>
-      <c r="U38" s="33"/>
-      <c r="V38" s="33"/>
-      <c r="W38" s="33"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="34"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
-      <c r="AB38" s="35" t="s">
-        <v>34</v>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="38"/>
+      <c r="V38" s="38"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="39"/>
+      <c r="Y38" s="39"/>
+      <c r="Z38" s="39"/>
+      <c r="AA38" s="39"/>
+      <c r="AB38" s="40" t="s">
+        <v>31</v>
       </c>
-      <c r="AC38" s="36"/>
-      <c r="AD38" s="36"/>
-      <c r="AE38" s="36"/>
-      <c r="AF38" s="36"/>
-      <c r="AG38" s="36"/>
-      <c r="AH38" s="37"/>
+      <c r="AC38" s="41"/>
+      <c r="AD38" s="41"/>
+      <c r="AE38" s="41"/>
+      <c r="AF38" s="41"/>
+      <c r="AG38" s="41"/>
+      <c r="AH38" s="42"/>
     </row>
     <row r="39" spans="1:34" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="4">
         <v>2</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="41" t="s">
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41"/>
-      <c r="V39" s="41"/>
-      <c r="W39" s="41"/>
-      <c r="X39" s="42"/>
-      <c r="Y39" s="42"/>
-      <c r="Z39" s="42"/>
-      <c r="AA39" s="42"/>
-      <c r="AB39" s="42"/>
-      <c r="AC39" s="42"/>
-      <c r="AD39" s="42"/>
-      <c r="AE39" s="42"/>
-      <c r="AF39" s="42"/>
-      <c r="AG39" s="42"/>
-      <c r="AH39" s="42"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="29"/>
+      <c r="AB39" s="29"/>
+      <c r="AC39" s="29"/>
+      <c r="AD39" s="29"/>
+      <c r="AE39" s="29"/>
+      <c r="AF39" s="29"/>
+      <c r="AG39" s="29"/>
+      <c r="AH39" s="29"/>
     </row>
     <row r="40" spans="1:34" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="4">
         <v>3</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="C40" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="41" t="s">
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="41"/>
-      <c r="S40" s="41"/>
-      <c r="T40" s="41"/>
-      <c r="U40" s="41"/>
-      <c r="V40" s="41"/>
-      <c r="W40" s="41"/>
-      <c r="X40" s="42"/>
-      <c r="Y40" s="42"/>
-      <c r="Z40" s="42"/>
-      <c r="AA40" s="42"/>
-      <c r="AB40" s="42"/>
-      <c r="AC40" s="42"/>
-      <c r="AD40" s="42"/>
-      <c r="AE40" s="42"/>
-      <c r="AF40" s="42"/>
-      <c r="AG40" s="42"/>
-      <c r="AH40" s="42"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="29"/>
+      <c r="Y40" s="29"/>
+      <c r="Z40" s="29"/>
+      <c r="AA40" s="29"/>
+      <c r="AB40" s="29"/>
+      <c r="AC40" s="29"/>
+      <c r="AD40" s="29"/>
+      <c r="AE40" s="29"/>
+      <c r="AF40" s="29"/>
+      <c r="AG40" s="29"/>
+      <c r="AH40" s="29"/>
     </row>
     <row r="41" spans="1:34" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="4">
         <v>4</v>
       </c>
-      <c r="C41" s="38" t="s">
+      <c r="C41" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="41" t="s">
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="41"/>
-      <c r="S41" s="41"/>
-      <c r="T41" s="41"/>
-      <c r="U41" s="41"/>
-      <c r="V41" s="41"/>
-      <c r="W41" s="41"/>
-      <c r="X41" s="42"/>
-      <c r="Y41" s="42"/>
-      <c r="Z41" s="42"/>
-      <c r="AA41" s="42"/>
-      <c r="AB41" s="42"/>
-      <c r="AC41" s="42"/>
-      <c r="AD41" s="42"/>
-      <c r="AE41" s="42"/>
-      <c r="AF41" s="42"/>
-      <c r="AG41" s="42"/>
-      <c r="AH41" s="42"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="29"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="29"/>
+      <c r="AA41" s="29"/>
+      <c r="AB41" s="29"/>
+      <c r="AC41" s="29"/>
+      <c r="AD41" s="29"/>
+      <c r="AE41" s="29"/>
+      <c r="AF41" s="29"/>
+      <c r="AG41" s="29"/>
+      <c r="AH41" s="29"/>
     </row>
     <row r="42" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4634,6 +4822,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="I37:W37"/>
+    <mergeCell ref="X37:AA37"/>
+    <mergeCell ref="AB37:AH37"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="I38:W38"/>
+    <mergeCell ref="X38:AA38"/>
+    <mergeCell ref="AB38:AH38"/>
     <mergeCell ref="C41:H41"/>
     <mergeCell ref="I41:W41"/>
     <mergeCell ref="X41:AA41"/>
@@ -4646,14 +4842,6 @@
     <mergeCell ref="I40:W40"/>
     <mergeCell ref="X40:AA40"/>
     <mergeCell ref="AB40:AH40"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="I37:W37"/>
-    <mergeCell ref="X37:AA37"/>
-    <mergeCell ref="AB37:AH37"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="I38:W38"/>
-    <mergeCell ref="X38:AA38"/>
-    <mergeCell ref="AB38:AH38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -4669,7 +4857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AI45"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
